--- a/ValueSet-well-being-categories.xlsx
+++ b/ValueSet-well-being-categories.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
